--- a/Doc/Dico_Donnees_Archi2.xlsx
+++ b/Doc/Dico_Donnees_Archi2.xlsx
@@ -24,9 +24,6 @@
     <t>Dictionnaire des données</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>Attributs</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mot de passe pour accéder au site </t>
+  </si>
+  <si>
+    <t>Entités</t>
   </si>
 </sst>
 </file>
@@ -585,15 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -623,12 +614,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +634,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -955,748 +955,748 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="34">
+        <v>11</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="39">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="45"/>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="45"/>
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="45"/>
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="45"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
         <v>255</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="45"/>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="43">
+      <c r="A14" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="38">
         <v>11</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>31</v>
+      <c r="E14" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="45"/>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="45"/>
+      <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="45"/>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="45"/>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="45"/>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="45"/>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="45"/>
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>25</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7">
-        <v>25</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
         <v>255</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="45"/>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="45"/>
+      <c r="B24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="13">
+        <v>25</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="7">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="13">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="43">
+      <c r="B25" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="38">
         <v>11</v>
       </c>
-      <c r="E25" s="44" t="s">
-        <v>32</v>
+      <c r="E25" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
         <v>255</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="45"/>
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="7">
         <v>25</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="45"/>
+      <c r="B28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
         <v>255</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="45"/>
+      <c r="B29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
         <v>255</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="45"/>
+      <c r="B30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
         <v>255</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="45"/>
+      <c r="B31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7">
         <v>255</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="45"/>
+      <c r="B32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="7">
         <v>255</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="27">
+        <v>11</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="30">
+      <c r="B34" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="38">
         <v>11</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="41" t="s">
+      <c r="E34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="43">
-        <v>11</v>
-      </c>
-      <c r="E34" s="44" t="s">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="45"/>
+      <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7">
         <v>255</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="33">
+      <c r="A36" s="45"/>
+      <c r="B36" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="30">
         <v>11</v>
       </c>
-      <c r="E36" s="34" t="s">
-        <v>76</v>
+      <c r="E36" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="30">
+      <c r="A37" s="46"/>
+      <c r="B37" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="27">
         <v>11</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
+      <c r="B38" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="38">
+        <v>11</v>
+      </c>
+      <c r="E38" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="45"/>
+      <c r="B39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7">
+        <v>25</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="45"/>
+      <c r="B40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7">
+        <v>25</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="45"/>
+      <c r="B41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="43">
-        <v>11</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="7">
-        <v>25</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
-      <c r="B40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="7">
-        <v>25</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7">
+        <v>25</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="45"/>
+      <c r="B42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="7">
-        <v>25</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="22"/>
-      <c r="B42" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="7">
         <v>100</v>
       </c>
       <c r="E42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="45"/>
+      <c r="B43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="22"/>
-      <c r="B43" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7">
         <v>255</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="22"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="20">
         <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="C46" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="41">
+        <v>11</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="46">
-        <v>11</v>
-      </c>
-      <c r="E46" s="44" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="43"/>
+      <c r="B47" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="35"/>
-      <c r="B47" s="17" t="s">
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="18">
+        <v>25</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="18">
-        <v>25</v>
-      </c>
-      <c r="E47" s="12" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="44"/>
+      <c r="B48" s="21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="36"/>
-      <c r="B48" s="24" t="s">
+      <c r="C48" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="23">
+        <v>25</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="26">
-        <v>25</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
